--- a/nazwa_pliku.xlsx
+++ b/nazwa_pliku.xlsx
@@ -1,81 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\Python\DOKUMENTACJA_tabela z informacjami (dla Yany)\Jednoelementowy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\Python\Jednoelementowy skrypt -Jana\TESTY\test2-7.02.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1572BA-53B9-41D4-9602-DF6B746D8D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365F17E-BDEF-445D-BC69-9F648B3B953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+  <si>
+    <t>Rysunek</t>
+  </si>
+  <si>
+    <t>Anz.</t>
+  </si>
   <si>
     <t>NAZWA</t>
   </si>
   <si>
-    <t>Anz.</t>
+    <t>TECHNOLOGIA</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>UWAGI2</t>
+  </si>
+  <si>
+    <t>UWAGI3</t>
+  </si>
+  <si>
+    <t>FOLDER1</t>
+  </si>
+  <si>
+    <t>FOLDER2</t>
+  </si>
+  <si>
+    <t>FOLDER3</t>
+  </si>
+  <si>
+    <t>przenosnik</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>Antriebstation</t>
   </si>
   <si>
     <t>UWAGI</t>
   </si>
   <si>
-    <t>Rysunek</t>
-  </si>
-  <si>
-    <t>TECHNOLOGIA</t>
-  </si>
-  <si>
-    <t>SL40043906_1</t>
-  </si>
-  <si>
-    <t>SL40043907_1</t>
-  </si>
-  <si>
-    <t>SL40048102_1</t>
-  </si>
-  <si>
-    <t>SL40841803_1</t>
-  </si>
-  <si>
-    <t>SL40048101</t>
-  </si>
-  <si>
-    <t>SL4004390</t>
+    <t>SL40848600</t>
+  </si>
+  <si>
+    <t>SL40882434_1</t>
+  </si>
+  <si>
+    <t>SL40893203</t>
+  </si>
+  <si>
+    <t>SL40893207_1</t>
+  </si>
+  <si>
+    <t>nazwa1</t>
+  </si>
+  <si>
+    <t>nazwa2</t>
+  </si>
+  <si>
+    <t>nazwa3</t>
+  </si>
+  <si>
+    <t>nazwa4</t>
+  </si>
+  <si>
+    <t>nazwa5</t>
+  </si>
+  <si>
+    <t>techno1</t>
+  </si>
+  <si>
+    <t>techno2</t>
+  </si>
+  <si>
+    <t>techno3</t>
+  </si>
+  <si>
+    <t>techno4</t>
+  </si>
+  <si>
+    <t>techno5</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>u31</t>
+  </si>
+  <si>
+    <t>u32</t>
+  </si>
+  <si>
+    <t>u33</t>
+  </si>
+  <si>
+    <t>u34</t>
+  </si>
+  <si>
+    <t>u35</t>
+  </si>
+  <si>
+    <t>SL40848700</t>
+  </si>
+  <si>
+    <t>giete</t>
+  </si>
+  <si>
+    <t>spawane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,53 +161,24 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <color theme="1"/>
+      <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -171,26 +218,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -198,21 +240,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Bad 1" xfId="1" xr:uid="{36B81B25-DD71-4198-A979-BD0F2AD5E335}"/>
+  <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,108 +523,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7062</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7062</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7062</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7062</v>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>